--- a/炮塔底座/MyData.xlsx
+++ b/炮塔底座/MyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieya\Desktop\配置工具\炮塔底座\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fish\fish-config\炮塔底座\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA2A43-AF22-4794-A83F-2A3ED921C3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2928421A-2723-4812-98ED-4135239BC8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1956" windowWidth="20424" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>11001</v>
+        <v>7001</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>11002</v>
+        <v>7002</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>11003</v>
+        <v>7003</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>11004</v>
+        <v>7004</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>11005</v>
+        <v>7005</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
